--- a/biology/Histoire de la zoologie et de la botanique/Adrien_Guérard_de_La_Quesnerie/Adrien_Guérard_de_La_Quesnerie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adrien_Guérard_de_La_Quesnerie/Adrien_Guérard_de_La_Quesnerie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adrien_Gu%C3%A9rard_de_La_Quesnerie</t>
+          <t>Adrien_Guérard_de_La_Quesnerie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrien Jacques Nicolas Guérard de La Quesnerie, né à Rouen le 28 octobre 1776 et mort à Saint-André-sur-Cailly le 19 septembre 1849[1], est un agronome français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrien Jacques Nicolas Guérard de La Quesnerie, né à Rouen le 28 octobre 1776 et mort à Saint-André-sur-Cailly le 19 septembre 1849, est un agronome français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adrien_Gu%C3%A9rard_de_La_Quesnerie</t>
+          <t>Adrien_Guérard_de_La_Quesnerie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du juriste Amable-Guillaume Guérard de La Quesnerie (1775-1799), tout en exerçant les fonctions de juge de paix de son canton, il passa la plus grande partie de sa vie à faire valoir une propriété qu’il possédait à Cailly. S’étant livré entièrement aux études agricoles, il devint l’un des agronomes qui contribuèrent le plus au progrès de l’agriculture normande.
 Il aimait surtout à essayer les nouvelles cultures et son département lui doit l’introduction de nouvelles cultures telles que la pomme de terre dite tardive d’Irlande, celle dite longue-naine hâtive d’Angleterre et plusieurs variétés de blé, notamment le blé de Talavera, le blé Pictet, le chêne quercitron, le chou Collet de Belgique, etc. L’un des premiers, il préconisa la culture de la betterave et de la carotte en lignes et il adopta l’assolement triennal dans sa ferme.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adrien_Gu%C3%A9rard_de_La_Quesnerie</t>
+          <t>Adrien_Guérard_de_La_Quesnerie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rapport fait par M. Guérard de La Quesnerie, à la séance publique de la Société d'agriculture du département de la Seine-Inférieure, sur l'avant-soc inventé par M. Paul Hanin, Rouen, F. Marie, (1820)
 Annuaire agricole du département de la Seine-Inférieure, ou Étrennes aux cultivateurs, par M. G. D… [Guérard de La Quesnerie] pour l'année 1822, Rouen, F. Marie, 1822
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adrien_Gu%C3%A9rard_de_La_Quesnerie</t>
+          <t>Adrien_Guérard_de_La_Quesnerie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Théodore-Éloi Lebreton, Biographie rouennaise, Rouen, Le Brument, 1865, p. 169
 Édouard Frère, Manuel du bibliographe normand, Rouen, A. Le Brument, 1858-1860, p. 158</t>
